--- a/data/ORDERS.xlsx
+++ b/data/ORDERS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="993" visibility="visible" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1" iterate="0" iterateCount="100" iterateDelta="0.0001" refMode="A1"/>
 </workbook>
 </file>
 
@@ -66,40 +66,40 @@
     </border>
   </borders>
   <cellStyleXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
-    <cellStyle name="Currency" xfId="3" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Percent" xfId="5" builtinId="5"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="3" name="Comma" xfId="1"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="2"/>
+    <cellStyle builtinId="4" name="Currency" xfId="3"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
+    <cellStyle builtinId="5" name="Percent" xfId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -393,18 +393,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView windowProtection="0" showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:G3"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8.570850202429151" customWidth="1" style="3" min="1" max="1025"/>
+    <col customWidth="1" max="1025" min="1" style="3" width="8.570850202429151"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.8" customHeight="1" s="4">
+    <row customHeight="1" ht="13.8" r="1" s="4">
       <c r="A1" s="5" t="inlineStr">
         <is>
           <t>ORDER ID</t>
@@ -442,43 +442,848 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>IC332294</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>[{'item': 'Sugar', 'quantity': '3', 'category': 'food', 'price': '20'}, {'item': 'Toilet Paper', 'quantity': '1', 'category': 'toiletry', 'price': '30'}, {'item': 'Salt', 'quantity': '1', 'category': 'food', 'price': '10'}, {'item': 'Potatoes', 'quantity': '5', 'category': 'food', 'price': '25'}]</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Karan</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>CANT A</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>225</v>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>[{'item': 'Sugar', 'quantity': '3', 'category': 'food', 'price': '20'}, {'item': 'Toilet Paper', 'quantity': '1', 'category': 'toiletry', 'price': '30'}, {'item': 'Salt', 'quantity': '1', 'category': 'food', 'price': '10'}, {'item': 'Potatoes', 'quantity': '5', 'category': 'food', 'price': '25'}]</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>Karan</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>CANT A</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>225</v>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>AM364667</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>[{'item': 'Sugar', 'quantity': '3', 'category': 'food', 'price': '20'}, {'item': 'Toilet Paper', 'quantity': '1', 'category': 'toiletry', 'price': '30'}, {'item': 'Salt', 'quantity': '1', 'category': 'food', 'price': '10'}, {'item': 'Potatoes', 'quantity': '5', 'category': 'food', 'price': '25'}]</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>Karan</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>CANT A</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>225</v>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>VD334928</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>[{'item': 'Sugar', 'quantity': '3', 'category': 'food', 'price': '20'}, {'item': 'Toilet Paper', 'quantity': '1', 'category': 'toiletry', 'price': '30'}, {'item': 'Salt', 'quantity': '1', 'category': 'food', 'price': '10'}, {'item': 'Potatoes', 'quantity': '5', 'category': 'food', 'price': '25'}]</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>Karan</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>CANT A</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>225</v>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>JO439362</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>[{'item': 'Sugar', 'quantity': '3', 'category': 'food', 'price': '20'}, {'item': 'Toilet Paper', 'quantity': '1', 'category': 'toiletry', 'price': '30'}, {'item': 'Salt', 'quantity': '1', 'category': 'food', 'price': '10'}, {'item': 'Potatoes', 'quantity': '5', 'category': 'food', 'price': '25'}]</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Karan</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>CANT A</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>225</v>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>RC242096</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>[{'item': 'Sugar', 'quantity': '3', 'category': 'food', 'price': '20'}, {'item': 'Toilet Paper', 'quantity': '1', 'category': 'toiletry', 'price': '30'}, {'item': 'Salt', 'quantity': '1', 'category': 'food', 'price': '10'}, {'item': 'Potatoes', 'quantity': '5', 'category': 'food', 'price': '25'}]</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>Karan</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>CANT A</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>225</v>
+      </c>
+      <c r="G6" s="3" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>HX291926</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>[{'item': 'Sugar', 'quantity': '3', 'category': 'food', 'price': '20'}, {'item': 'Toilet Paper', 'quantity': '1', 'category': 'toiletry', 'price': '30'}, {'item': 'Salt', 'quantity': '1', 'category': 'food', 'price': '10'}, {'item': 'Potatoes', 'quantity': '5', 'category': 'food', 'price': '25'}]</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>Karan</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>CANT A</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>225</v>
+      </c>
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>TC326189</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>[{'item': 'Sugar', 'quantity': '3', 'category': 'food', 'price': '20'}, {'item': 'Toilet Paper', 'quantity': '1', 'category': 'toiletry', 'price': '30'}, {'item': 'Salt', 'quantity': '1', 'category': 'food', 'price': '10'}, {'item': 'Potatoes', 'quantity': '5', 'category': 'food', 'price': '25'}]</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>Karan</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>CANT A</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>225</v>
+      </c>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>RW237860</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>[{'item': 'Sugar', 'quantity': '3', 'category': 'food', 'price': '20'}, {'item': 'Toilet Paper', 'quantity': '1', 'category': 'toiletry', 'price': '30'}, {'item': 'Salt', 'quantity': '1', 'category': 'food', 'price': '10'}, {'item': 'Potatoes', 'quantity': '5', 'category': 'food', 'price': '25'}]</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>Karan</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>CANT A</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>225</v>
+      </c>
+      <c r="G9" s="3" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>LT268318</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>[{'item': 'Sugar', 'quantity': '3', 'category': 'food', 'price': '20'}, {'item': 'Toilet Paper', 'quantity': '1', 'category': 'toiletry', 'price': '30'}, {'item': 'Salt', 'quantity': '1', 'category': 'food', 'price': '10'}, {'item': 'Potatoes', 'quantity': '5', 'category': 'food', 'price': '25'}]</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>Karan</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>CANT A</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>225</v>
+      </c>
+      <c r="G10" s="3" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>NR211300</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>[{'item': 'Sugar', 'quantity': '3', 'category': 'food', 'price': '20'}, {'item': 'Toilet Paper', 'quantity': '1', 'category': 'toiletry', 'price': '30'}, {'item': 'Salt', 'quantity': '1', 'category': 'food', 'price': '10'}, {'item': 'Potatoes', 'quantity': '5', 'category': 'food', 'price': '25'}]</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>Karan</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>CANT A</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>225</v>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>IG255509</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>[{'item': 'Sugar', 'quantity': '3', 'category': 'food', 'price': '20'}, {'item': 'Toilet Paper', 'quantity': '1', 'category': 'toiletry', 'price': '30'}, {'item': 'Salt', 'quantity': '1', 'category': 'food', 'price': '10'}, {'item': 'Potatoes', 'quantity': '5', 'category': 'food', 'price': '25'}]</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>Karan</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>CANT A</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>225</v>
+      </c>
+      <c r="G12" s="3" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>EO341285</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>[{'item': 'Sugar', 'quantity': '3', 'category': 'food', 'price': '20'}, {'item': 'Toilet Paper', 'quantity': '1', 'category': 'toiletry', 'price': '30'}, {'item': 'Salt', 'quantity': '1', 'category': 'food', 'price': '10'}, {'item': 'Potatoes', 'quantity': '5', 'category': 'food', 'price': '25'}]</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>Karan</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>CANT A</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>225</v>
+      </c>
+      <c r="G13" s="3" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>AE153406</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>[{'item': 'Sugar', 'quantity': '3', 'category': 'food', 'price': '20'}, {'item': 'Toilet Paper', 'quantity': '1', 'category': 'toiletry', 'price': '30'}, {'item': 'Salt', 'quantity': '1', 'category': 'food', 'price': '10'}, {'item': 'Potatoes', 'quantity': '5', 'category': 'food', 'price': '25'}]</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>Karan</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>CANT A</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>225</v>
+      </c>
+      <c r="G14" s="3" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>KT384583</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>[{'item': 'Sugar', 'quantity': '3', 'category': 'food', 'price': '20'}, {'item': 'Toilet Paper', 'quantity': '1', 'category': 'toiletry', 'price': '30'}, {'item': 'Salt', 'quantity': '1', 'category': 'food', 'price': '10'}, {'item': 'Potatoes', 'quantity': '5', 'category': 'food', 'price': '25'}]</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>Karan</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>CANT A</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="n">
+        <v>225</v>
+      </c>
+      <c r="G15" s="3" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>XY380998</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>[{'item': 'Sugar', 'quantity': '3', 'category': 'food', 'price': '20'}, {'item': 'Toilet Paper', 'quantity': '1', 'category': 'toiletry', 'price': '30'}, {'item': 'Salt', 'quantity': '1', 'category': 'food', 'price': '10'}, {'item': 'Potatoes', 'quantity': '5', 'category': 'food', 'price': '25'}]</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>Karan</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>CANT A</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>225</v>
+      </c>
+      <c r="G16" s="3" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>QQ247901</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>[{'item': 'Sugar', 'quantity': '3', 'category': 'food', 'price': '20'}, {'item': 'Toilet Paper', 'quantity': '1', 'category': 'toiletry', 'price': '30'}, {'item': 'Salt', 'quantity': '1', 'category': 'food', 'price': '10'}, {'item': 'Potatoes', 'quantity': '5', 'category': 'food', 'price': '25'}]</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>Karan</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>CANT A</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="F17" s="3" t="n">
+        <v>225</v>
+      </c>
+      <c r="G17" s="3" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>FM293934</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>[{'item': 'Sugar', 'quantity': '3', 'category': 'food', 'price': '20'}, {'item': 'Toilet Paper', 'quantity': '1', 'category': 'toiletry', 'price': '30'}, {'item': 'Salt', 'quantity': '1', 'category': 'food', 'price': '10'}, {'item': 'Potatoes', 'quantity': '5', 'category': 'food', 'price': '25'}]</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>Karan</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>CANT A</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>225</v>
+      </c>
+      <c r="G18" s="3" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>IA361154</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>[{'item': 'Sugar', 'quantity': '3', 'category': 'food', 'price': '20'}, {'item': 'Toilet Paper', 'quantity': '1', 'category': 'toiletry', 'price': '30'}, {'item': 'Salt', 'quantity': '1', 'category': 'food', 'price': '10'}, {'item': 'Potatoes', 'quantity': '5', 'category': 'food', 'price': '25'}]</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>Karan</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>CANT A</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="F19" s="3" t="n">
+        <v>225</v>
+      </c>
+      <c r="G19" s="3" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>PA351270</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>[{'item': 'Sugar', 'quantity': '3', 'category': 'food', 'price': '20'}, {'item': 'Toilet Paper', 'quantity': '1', 'category': 'toiletry', 'price': '30'}, {'item': 'Salt', 'quantity': '1', 'category': 'food', 'price': '10'}, {'item': 'Potatoes', 'quantity': '5', 'category': 'food', 'price': '25'}]</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>Karan</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>CANT A</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="F20" s="3" t="n">
+        <v>225</v>
+      </c>
+      <c r="G20" s="3" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>FO119366</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>[{'item': 'Sugar', 'quantity': '3', 'category': 'food', 'price': '20'}, {'item': 'Toilet Paper', 'quantity': '1', 'category': 'toiletry', 'price': '30'}, {'item': 'Salt', 'quantity': '1', 'category': 'food', 'price': '10'}, {'item': 'Potatoes', 'quantity': '5', 'category': 'food', 'price': '25'}]</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>Karan</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>CANT A</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="F21" s="3" t="n">
+        <v>225</v>
+      </c>
+      <c r="G21" s="3" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>HC414863</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>[{'item': 'Sugar', 'quantity': '3', 'category': 'food', 'price': '20'}, {'item': 'Toilet Paper', 'quantity': '1', 'category': 'toiletry', 'price': '30'}, {'item': 'Salt', 'quantity': '1', 'category': 'food', 'price': '10'}, {'item': 'Potatoes', 'quantity': '5', 'category': 'food', 'price': '25'}]</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>Karan</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>CANT A</t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="F22" s="3" t="n">
+        <v>225</v>
+      </c>
+      <c r="G22" s="3" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>QO291009</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>[{'item': 'Sugar', 'quantity': '3', 'category': 'food', 'price': '20'}, {'item': 'Toilet Paper', 'quantity': '1', 'category': 'toiletry', 'price': '30'}, {'item': 'Salt', 'quantity': '1', 'category': 'food', 'price': '10'}, {'item': 'Potatoes', 'quantity': '5', 'category': 'food', 'price': '25'}]</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>Karan</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t>CANT A</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="F23" s="3" t="n">
+        <v>225</v>
+      </c>
+      <c r="G23" s="3" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>RT225081</t>
+        </is>
+      </c>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>[{'item': 'Sugar', 'quantity': '3', 'category': 'food', 'price': '20'}, {'item': 'Toilet Paper', 'quantity': '1', 'category': 'toiletry', 'price': '30'}, {'item': 'Salt', 'quantity': '1', 'category': 'food', 'price': '10'}, {'item': 'Potatoes', 'quantity': '5', 'category': 'food', 'price': '25'}]</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>Karan</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="inlineStr">
+        <is>
+          <t>CANT A</t>
+        </is>
+      </c>
+      <c r="E24" s="3" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="F24" s="3" t="n">
+        <v>225</v>
+      </c>
+      <c r="G24" s="3" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>LW247175</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>[{'item': 'Sugar', 'quantity': '3', 'category': 'food', 'price': '20'}, {'item': 'Toilet Paper', 'quantity': '1', 'category': 'toiletry', 'price': '30'}, {'item': 'Salt', 'quantity': '1', 'category': 'food', 'price': '10'}, {'item': 'Potatoes', 'quantity': '5', 'category': 'food', 'price': '25'}]</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Karan</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>CANT A</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>225</v>
+      </c>
+      <c r="G25" t="inlineStr">
         <is>
           <t>Received</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup orientation="portrait" paperSize="1" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" usePrinterDefaults="0" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="0" usePrinterDefaults="0" verticalDpi="300"/>
 </worksheet>
 </file>